--- a/data/trans_dic/P56$nadie-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$nadie-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.4701319389782694</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09559399775723491</v>
+        <v>0.0955939977572349</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0.4924344593570977</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.09918878880110488</v>
+        <v>0.09918878880110489</v>
       </c>
     </row>
     <row r="5">
@@ -726,7 +726,7 @@
       <c r="K5" s="5" t="inlineStr"/>
       <c r="L5" s="5" t="inlineStr"/>
       <c r="M5" s="5" t="n">
-        <v>0.1483258574169117</v>
+        <v>0.1686452066744134</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>0</v>
@@ -742,10 +742,10 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.8990820182908181</v>
+        <v>0.8951936159895179</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5210025929130339</v>
+        <v>0.4223050561964903</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
@@ -753,15 +753,15 @@
         <v>1</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3956736049610173</v>
+        <v>0.3919243772735281</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="n">
-        <v>0.8147264180202652</v>
+        <v>0.8219306229604324</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2884369492331561</v>
+        <v>0.3421349160667955</v>
       </c>
     </row>
     <row r="7">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1302232482426113</v>
+        <v>0.1302232482426114</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04214582548440722</v>
+        <v>0.0431909077267207</v>
       </c>
       <c r="K8" s="5" t="inlineStr"/>
       <c r="L8" s="5" t="inlineStr"/>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04519905255549272</v>
+        <v>0.05730209544984267</v>
       </c>
     </row>
     <row r="9">
@@ -853,7 +853,7 @@
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.4555094986382672</v>
+        <v>0.4090321504855144</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
@@ -861,15 +861,15 @@
         <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4185886419516308</v>
+        <v>0.4171899385120726</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
       <c r="L9" s="5" t="inlineStr"/>
       <c r="M9" s="5" t="n">
-        <v>0.7726139425370836</v>
+        <v>0.7583962506927241</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2981492312763644</v>
+        <v>0.3331702762248837</v>
       </c>
     </row>
     <row r="10">
@@ -960,27 +960,27 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5643845413663524</v>
+        <v>0.5624098726531067</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5887616411285036</v>
+        <v>0.5889038693764976</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.628975301245991</v>
+        <v>0.6512405158956691</v>
       </c>
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="n">
-        <v>0.346242662505854</v>
+        <v>0.3774891998819411</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.246710998525572</v>
+        <v>0.2983024757319742</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2994915993528854</v>
+        <v>0.2964632228613019</v>
       </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
@@ -1017,7 +1017,7 @@
         <v>0.171073688029902</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.03907710460096899</v>
+        <v>0.039077104600969</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.04657660374583279</v>
@@ -1049,14 +1049,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01182687140643042</v>
+        <v>0.01093402245657126</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
-        <v>0.05265948933860095</v>
+        <v>0.05223732779649241</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05152426744793632</v>
+        <v>0.05413357611106492</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01643047829409859</v>
+        <v>0.01620927332620358</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03931927316109998</v>
+        <v>0.04548676443903516</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01717563688506597</v>
+        <v>0.01618005767034327</v>
       </c>
     </row>
     <row r="15">
@@ -1082,38 +1082,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1860558340973543</v>
+        <v>0.2020297939149671</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1013008322225228</v>
+        <v>0.1168796754153018</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2158441880284279</v>
+        <v>0.2160981123450317</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1162011283671836</v>
+        <v>0.107050883793048</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.4113853533578877</v>
+        <v>0.40652849041689</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4112269579820317</v>
+        <v>0.4231906922466709</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.133913240118336</v>
+        <v>0.13052718641403</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1555434803999882</v>
+        <v>0.1439705598374824</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1767434734023654</v>
+        <v>0.1508946629032233</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2393578232072411</v>
+        <v>0.2532223201025032</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08732511568953059</v>
+        <v>0.08759910510387618</v>
       </c>
     </row>
     <row r="16">
@@ -1179,31 +1179,31 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02450008865763344</v>
+        <v>0.02538727854109933</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01635087874575994</v>
+        <v>0.01615974743131796</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08676537800553231</v>
+        <v>0.07348740842665541</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03007081587940786</v>
+        <v>0.03003167523781259</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0127009308679666</v>
+        <v>0.01271005095768401</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05512886776066932</v>
+        <v>0.05351993766649945</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03700169527579147</v>
+        <v>0.03660068136464921</v>
       </c>
     </row>
     <row r="18">
@@ -1214,38 +1214,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3671258782450982</v>
+        <v>0.3538524156027089</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.1318110043422403</v>
+        <v>0.1398667934565861</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2566732580307352</v>
+        <v>0.2579054833117788</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3505385834255795</v>
+        <v>0.3287718528317413</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.138981122516926</v>
+        <v>0.1373105948473146</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3639639946716743</v>
+        <v>0.3863713443576579</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1025792159535659</v>
+        <v>0.1021905827132292</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2288467231503667</v>
+        <v>0.2310718819712521</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1088585842174213</v>
+        <v>0.09897858383512045</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2247024837935976</v>
+        <v>0.2326371301012503</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1098967858262731</v>
+        <v>0.1055429270116281</v>
       </c>
     </row>
     <row r="19">
@@ -1287,7 +1287,7 @@
         <v>0.1188782542624283</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.02702137446133468</v>
+        <v>0.02702137446133467</v>
       </c>
     </row>
     <row r="20">
@@ -1302,28 +1302,28 @@
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.07210904061721583</v>
+        <v>0.07157675079898466</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0295019800316359</v>
+        <v>0.0286564445735089</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05730378053533718</v>
+        <v>0.05717884214166059</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01198503994204541</v>
+        <v>0.01233202826431142</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07210904061721583</v>
+        <v>0.07157675079898466</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0295019800316359</v>
+        <v>0.0286564445735089</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.05730378053533718</v>
+        <v>0.05717884214166059</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01250719138583631</v>
+        <v>0.01223783353027945</v>
       </c>
     </row>
     <row r="21">
@@ -1338,28 +1338,28 @@
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.2746519713266874</v>
+        <v>0.2767323421643395</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.133992730289167</v>
+        <v>0.1313561659910089</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.200890166433168</v>
+        <v>0.207244711581529</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05613203269842917</v>
+        <v>0.0572258177601139</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2746519713266874</v>
+        <v>0.2767323421643395</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.133992730289167</v>
+        <v>0.1313561659910089</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.200890166433168</v>
+        <v>0.207244711581529</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.0537198955239716</v>
+        <v>0.05250601603689207</v>
       </c>
     </row>
     <row r="22">
@@ -1418,40 +1418,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01747024838080122</v>
+        <v>0.01927245778077691</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02436179196669721</v>
+        <v>0.03204221437562474</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02873461753266052</v>
+        <v>0.02845914561274269</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05771207367531488</v>
+        <v>0.04897637917218103</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03421571468444854</v>
+        <v>0.03529355681294702</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1150434525273444</v>
+        <v>0.1096179377649078</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02884020250681034</v>
+        <v>0.02839160451963294</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0530951419818662</v>
+        <v>0.05420324375356561</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02974746859713682</v>
+        <v>0.03112478587651611</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.09991359552851507</v>
+        <v>0.09961008119440255</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03396762500850573</v>
+        <v>0.03201175959794569</v>
       </c>
     </row>
     <row r="24">
@@ -1462,40 +1462,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1793055262008519</v>
+        <v>0.1617828534395197</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09442908142068017</v>
+        <v>0.08109616207529433</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1776892355511038</v>
+        <v>0.1679542543505484</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1012806726573645</v>
+        <v>0.100137463375008</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1826923815260866</v>
+        <v>0.1845307411802675</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1028732172481385</v>
+        <v>0.108144202905583</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2380284528426549</v>
+        <v>0.2415965100704375</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06224482326105062</v>
+        <v>0.06518769683537531</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1507209027659802</v>
+        <v>0.1518472698523911</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.08592308648504113</v>
+        <v>0.0843930657494288</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2027213919187699</v>
+        <v>0.1952903926016891</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06521473664937678</v>
+        <v>0.06602009369821746</v>
       </c>
     </row>
     <row r="25">
@@ -1786,7 +1786,7 @@
       <c r="K6" s="6" t="inlineStr"/>
       <c r="L6" s="6" t="inlineStr"/>
       <c r="M6" s="6" t="n">
-        <v>1686</v>
+        <v>1917</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0</v>
@@ -1802,10 +1802,10 @@
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>5829</v>
+        <v>5804</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>3080</v>
+        <v>2497</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr"/>
@@ -1813,15 +1813,15 @@
         <v>4882</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2527</v>
+        <v>2503</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="inlineStr"/>
       <c r="M7" s="6" t="n">
-        <v>9259</v>
+        <v>9341</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>3547</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="8">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="K10" s="6" t="inlineStr"/>
       <c r="L10" s="6" t="inlineStr"/>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>842</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="11">
@@ -1957,7 +1957,7 @@
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>4074</v>
+        <v>3658</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -1965,15 +1965,15 @@
         <v>4504</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>4052</v>
+        <v>4038</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="inlineStr"/>
       <c r="M11" s="6" t="n">
-        <v>7229</v>
+        <v>7096</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>5552</v>
+        <v>6205</v>
       </c>
     </row>
     <row r="12">
@@ -2108,27 +2108,27 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3381</v>
+        <v>3369</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>4572</v>
+        <v>4734</v>
       </c>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="n">
-        <v>3623</v>
+        <v>3950</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>4346</v>
+        <v>5255</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>5300</v>
+        <v>5247</v>
       </c>
       <c r="N15" s="6" t="inlineStr"/>
     </row>
@@ -2241,14 +2241,14 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>646</v>
+        <v>598</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1126</v>
+        <v>1183</v>
       </c>
       <c r="J18" s="6" t="n">
         <v>0</v>
@@ -2257,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1829</v>
+        <v>2116</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1456</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="19">
@@ -2274,38 +2274,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5481</v>
+        <v>5951</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4306</v>
+        <v>4969</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5323</v>
+        <v>5329</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>6350</v>
+        <v>5850</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>7493</v>
+        <v>7405</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8989</v>
+        <v>9251</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>4036</v>
+        <v>3934</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>5726</v>
+        <v>5300</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>10733</v>
+        <v>9163</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>11134</v>
+        <v>11779</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>7404</v>
+        <v>7427</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3103</v>
+        <v>2628</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2702</v>
+        <v>2699</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3387</v>
+        <v>3288</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4019</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="23">
@@ -2450,38 +2450,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3761</v>
+        <v>3625</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>3384</v>
+        <v>3591</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4816</v>
+        <v>4839</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6051</v>
+        <v>5675</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>9082</v>
+        <v>8973</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>13018</v>
+        <v>13819</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>9218</v>
+        <v>9183</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6295</v>
+        <v>6356</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>9088</v>
+        <v>8264</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>13806</v>
+        <v>14293</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>11937</v>
+        <v>11464</v>
       </c>
     </row>
     <row r="24">
@@ -2582,28 +2582,28 @@
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>4322</v>
+        <v>4290</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>3057</v>
+        <v>2969</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>5518</v>
+        <v>5506</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1352</v>
+        <v>1391</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>4322</v>
+        <v>4290</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>3057</v>
+        <v>2969</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>5518</v>
+        <v>5506</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>1439</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="27">
@@ -2618,28 +2618,28 @@
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>16461</v>
+        <v>16586</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>13883</v>
+        <v>13610</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>19345</v>
+        <v>19957</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6334</v>
+        <v>6457</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>16461</v>
+        <v>16586</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>13883</v>
+        <v>13610</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>19345</v>
+        <v>19957</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>6180</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="28">
@@ -2742,40 +2742,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>843</v>
+        <v>930</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1756</v>
+        <v>2310</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3009</v>
+        <v>2980</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5399</v>
+        <v>4581</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>6989</v>
+        <v>7210</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>19624</v>
+        <v>18698</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>7776</v>
+        <v>7655</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>7530</v>
+        <v>7687</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>8412</v>
+        <v>8801</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>24247</v>
+        <v>24173</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>12716</v>
+        <v>11984</v>
       </c>
     </row>
     <row r="31">
@@ -2786,40 +2786,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>8657</v>
+        <v>7811</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>7413</v>
+        <v>6366</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>12811</v>
+        <v>12109</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>10606</v>
+        <v>10487</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>17090</v>
+        <v>17262</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>21014</v>
+        <v>22091</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>40602</v>
+        <v>41211</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>16784</v>
+        <v>17577</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>21376</v>
+        <v>21536</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>24297</v>
+        <v>23865</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>49195</v>
+        <v>47392</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>24414</v>
+        <v>24715</v>
       </c>
     </row>
     <row r="32">
